--- a/HW01/Scheduler.xlsx
+++ b/HW01/Scheduler.xlsx
@@ -109,7 +109,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,6 +176,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -191,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -232,6 +238,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -516,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AD24" sqref="AD24"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -527,7 +536,7 @@
     <col min="34" max="34" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>11</v>
       </c>
@@ -535,7 +544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -591,7 +600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -634,7 +643,7 @@
       <c r="AD3" s="5"/>
       <c r="AE3" s="4"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D5" s="3">
         <v>0</v>
       </c>
@@ -695,7 +704,7 @@
       </c>
       <c r="AF5" s="5"/>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -734,7 +743,7 @@
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -779,10 +788,10 @@
       <c r="AD8" s="2"/>
       <c r="AE8" s="4"/>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="AE9" s="4"/>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <v>0</v>
       </c>
@@ -829,7 +838,7 @@
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -885,7 +894,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>8</v>
       </c>
@@ -928,45 +937,87 @@
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="D15" s="7"/>
-      <c r="E15" s="7">
-        <v>0</v>
-      </c>
-      <c r="F15" s="7"/>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
       <c r="G15" s="7"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7">
-        <v>1</v>
-      </c>
-      <c r="L15" s="7"/>
+      <c r="H15" s="8">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
       <c r="M15" s="7"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7">
-        <v>2</v>
-      </c>
-      <c r="R15" s="7"/>
+      <c r="N15" s="8">
+        <v>3</v>
+      </c>
+      <c r="O15" s="7">
+        <v>1</v>
+      </c>
+      <c r="P15" s="7">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>4</v>
+      </c>
+      <c r="R15" s="7">
+        <v>2</v>
+      </c>
       <c r="S15" s="7"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7">
-        <v>3</v>
-      </c>
-      <c r="X15" s="7"/>
+      <c r="T15" s="8">
+        <v>5</v>
+      </c>
+      <c r="U15" s="7">
+        <v>2</v>
+      </c>
+      <c r="V15" s="7">
+        <v>3</v>
+      </c>
+      <c r="W15" s="8">
+        <v>6</v>
+      </c>
+      <c r="X15" s="7">
+        <v>3</v>
+      </c>
       <c r="Y15" s="7"/>
-      <c r="Z15" s="4"/>
-      <c r="AA15" s="4"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7">
-        <v>4</v>
-      </c>
-      <c r="AD15" s="7"/>
+      <c r="Z15" s="8">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>3</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>4</v>
+      </c>
+      <c r="AC15" s="8">
+        <v>8</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>4</v>
+      </c>
       <c r="AE15" s="7"/>
+      <c r="AF15" s="8">
+        <v>9</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1099,66 +1150,60 @@
       <c r="AE19" s="4"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="D21" s="9"/>
-      <c r="E21" s="9">
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10">
-        <v>1</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
-        <v>1</v>
-      </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="10">
-        <v>2</v>
-      </c>
-      <c r="O21" s="12">
-        <v>1</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9">
-        <v>2</v>
-      </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
+      <c r="D21" s="9">
+        <v>0</v>
+      </c>
+      <c r="E21" s="10">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <v>0</v>
+      </c>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="9">
+        <v>1</v>
+      </c>
+      <c r="K21" s="10">
+        <v>1</v>
+      </c>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="10">
+        <v>2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>2</v>
+      </c>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="10">
         <v>3</v>
       </c>
-      <c r="U21" s="12">
-        <v>1</v>
-      </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9">
-        <v>3</v>
-      </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="10">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="12">
-        <v>2</v>
-      </c>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="10">
+      <c r="U21" s="14"/>
+      <c r="V21" s="9">
+        <v>3</v>
+      </c>
+      <c r="W21" s="14"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="10">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="9">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="10">
         <v>5</v>
       </c>
-      <c r="AG21" s="12">
-        <v>2</v>
-      </c>
+      <c r="AE21" s="14"/>
+      <c r="AF21" s="14"/>
+      <c r="AG21" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/HW01/Scheduler.xlsx
+++ b/HW01/Scheduler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\學校\台科\10901\嵌入式作業系統實作 Embedded OS Implementation\-OS-_code\HW01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10901\嵌入式作業系統實作\HW01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>(0, 1, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     0     1    2    3     4    5     6    7     8    9    10   11  12   13   14   15   16  17   18   19   20  21   22   23   24   25  26   27   28  29   30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -197,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -242,6 +238,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +525,7 @@
   <dimension ref="A1:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -540,13 +539,100 @@
       <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="15">
+        <v>0</v>
+      </c>
+      <c r="E1" s="15">
+        <v>1</v>
+      </c>
+      <c r="F1" s="15">
+        <v>2</v>
+      </c>
+      <c r="G1" s="15">
+        <v>3</v>
+      </c>
+      <c r="H1" s="15">
+        <v>4</v>
+      </c>
+      <c r="I1" s="15">
+        <v>5</v>
+      </c>
+      <c r="J1" s="15">
+        <v>6</v>
+      </c>
+      <c r="K1" s="15">
+        <v>7</v>
+      </c>
+      <c r="L1" s="15">
+        <v>8</v>
+      </c>
+      <c r="M1" s="15">
+        <v>9</v>
+      </c>
+      <c r="N1" s="15">
+        <v>10</v>
+      </c>
+      <c r="O1" s="15">
+        <v>11</v>
+      </c>
+      <c r="P1" s="15">
         <v>12</v>
+      </c>
+      <c r="Q1" s="15">
+        <v>13</v>
+      </c>
+      <c r="R1" s="15">
+        <v>14</v>
+      </c>
+      <c r="S1" s="15">
+        <v>15</v>
+      </c>
+      <c r="T1" s="15">
+        <v>16</v>
+      </c>
+      <c r="U1" s="15">
+        <v>17</v>
+      </c>
+      <c r="V1" s="15">
+        <v>18</v>
+      </c>
+      <c r="W1" s="15">
+        <v>19</v>
+      </c>
+      <c r="X1" s="15">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="15">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="15">
+        <v>22</v>
+      </c>
+      <c r="AA1" s="15">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="15">
+        <v>24</v>
+      </c>
+      <c r="AC1" s="15">
+        <v>25</v>
+      </c>
+      <c r="AD1" s="15">
+        <v>26</v>
+      </c>
+      <c r="AE1" s="15">
+        <v>27</v>
+      </c>
+      <c r="AF1" s="15">
+        <v>28</v>
+      </c>
+      <c r="AG1" s="15">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>

--- a/HW01/Scheduler.xlsx
+++ b/HW01/Scheduler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10901\嵌入式作業系統實作\HW01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\學校\台科\10901\嵌入式作業系統實作 Embedded OS Implementation\-OS-_code\HW01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>(0, 1, 3)</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -41,12 +41,6 @@
   </si>
   <si>
     <t>Task set 4</t>
-  </si>
-  <si>
-    <t>(0, 8, 15)</t>
-  </si>
-  <si>
-    <t>(0, 2, 5)</t>
   </si>
   <si>
     <t>(1, 1, 3)</t>
@@ -66,6 +60,18 @@
   </si>
   <si>
     <t xml:space="preserve">Task set 1 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 8, 15)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 2, 5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -105,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +184,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -193,7 +211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -241,6 +259,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -522,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG21"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -537,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="15">
         <v>0</v>
@@ -632,7 +659,7 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -789,13 +816,14 @@
         <v>9</v>
       </c>
       <c r="AF5" s="5"/>
+      <c r="AG5" s="16"/>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -831,7 +859,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -923,13 +951,14 @@
       <c r="AD10" s="2"/>
       <c r="AE10" s="6"/>
       <c r="AF10" s="6"/>
+      <c r="AG10" s="16"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -982,7 +1011,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
@@ -1110,7 +1139,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
@@ -1153,7 +1182,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
@@ -1192,7 +1221,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -1242,27 +1271,25 @@
       <c r="E21" s="10">
         <v>0</v>
       </c>
-      <c r="F21" s="14">
-        <v>0</v>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="9">
-        <v>1</v>
-      </c>
-      <c r="K21" s="10">
-        <v>1</v>
-      </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="J21" s="10">
+        <v>1</v>
+      </c>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9">
+        <v>1</v>
+      </c>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
       <c r="O21" s="10">
         <v>2</v>
       </c>
-      <c r="P21" s="9">
-        <v>2</v>
-      </c>
+      <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="14"/>
@@ -1270,9 +1297,7 @@
         <v>3</v>
       </c>
       <c r="U21" s="14"/>
-      <c r="V21" s="9">
-        <v>3</v>
-      </c>
+      <c r="V21" s="14"/>
       <c r="W21" s="14"/>
       <c r="X21" s="14"/>
       <c r="Y21" s="10">
@@ -1280,9 +1305,7 @@
       </c>
       <c r="Z21" s="14"/>
       <c r="AA21" s="14"/>
-      <c r="AB21" s="9">
-        <v>4</v>
-      </c>
+      <c r="AB21" s="14"/>
       <c r="AC21" s="14"/>
       <c r="AD21" s="10">
         <v>5</v>
@@ -1290,6 +1313,118 @@
       <c r="AE21" s="14"/>
       <c r="AF21" s="14"/>
       <c r="AG21" s="14"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="Y23" s="17"/>
+      <c r="AB23" s="17"/>
+      <c r="AE23" s="17"/>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="D27" s="17">
+        <v>0</v>
+      </c>
+      <c r="E27" s="18">
+        <v>0</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="17">
+        <v>1</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0</v>
+      </c>
+      <c r="I27" s="18"/>
+      <c r="J27" s="17">
+        <v>2</v>
+      </c>
+      <c r="K27" s="18">
+        <v>1</v>
+      </c>
+      <c r="L27" s="18"/>
+      <c r="M27" s="17">
+        <v>3</v>
+      </c>
+      <c r="N27" s="18">
+        <v>1</v>
+      </c>
+      <c r="O27" s="18"/>
+      <c r="P27" s="17">
+        <v>4</v>
+      </c>
+      <c r="Q27" s="18">
+        <v>2</v>
+      </c>
+      <c r="R27" s="18"/>
+      <c r="S27" s="17">
+        <v>5</v>
+      </c>
+      <c r="T27" s="18">
+        <v>2</v>
+      </c>
+      <c r="U27" s="18"/>
+      <c r="V27" s="17">
+        <v>6</v>
+      </c>
+      <c r="W27" s="18">
+        <v>3</v>
+      </c>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="17">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>3</v>
+      </c>
+      <c r="AA27" s="18"/>
+      <c r="AB27" s="17">
+        <v>8</v>
+      </c>
+      <c r="AC27" s="18">
+        <v>4</v>
+      </c>
+      <c r="AD27" s="18"/>
+      <c r="AE27" s="17">
+        <v>9</v>
+      </c>
+      <c r="AF27" s="18">
+        <v>4</v>
+      </c>
+      <c r="AG27" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/HW01/Scheduler.xlsx
+++ b/HW01/Scheduler.xlsx
@@ -25,14 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
-  <si>
-    <t>(0, 1, 3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(0, 3, 6)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
   <si>
     <t>Task set 2</t>
   </si>
@@ -72,6 +64,14 @@
   </si>
   <si>
     <t>(0, 2, 5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 1, 3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0, 3, 6)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -552,7 +552,7 @@
   <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -564,7 +564,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="15">
         <v>0</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D2" s="3">
         <v>0</v>
@@ -715,7 +715,7 @@
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5">
@@ -820,10 +820,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -859,7 +859,7 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -955,10 +955,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="8">
         <v>0</v>
@@ -1011,7 +1011,7 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7">
@@ -1136,10 +1136,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D18" s="12">
         <v>0</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" s="10">
         <v>0</v>
@@ -1316,7 +1316,7 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17"/>
       <c r="G23" s="17"/>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>

--- a/HW01/Scheduler.xlsx
+++ b/HW01/Scheduler.xlsx
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -960,52 +960,52 @@
       <c r="B12" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
       <c r="F12" s="4"/>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="8">
+        <v>1</v>
+      </c>
       <c r="I12" s="4"/>
-      <c r="J12" s="8">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
       <c r="L12" s="4"/>
-      <c r="M12" s="8">
-        <v>3</v>
-      </c>
-      <c r="N12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="8">
+        <v>3</v>
+      </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="8">
-        <v>4</v>
-      </c>
-      <c r="Q12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="8">
+        <v>4</v>
+      </c>
       <c r="R12" s="4"/>
-      <c r="S12" s="8">
+      <c r="S12" s="4"/>
+      <c r="T12" s="8">
         <v>5</v>
       </c>
-      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
-      <c r="V12" s="8">
+      <c r="V12" s="4"/>
+      <c r="W12" s="8">
         <v>6</v>
       </c>
-      <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="8">
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="8">
         <v>7</v>
       </c>
-      <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="8">
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="8">
         <v>8</v>
       </c>
-      <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
-      <c r="AE12" s="8">
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1184,85 +1184,85 @@
       <c r="B18" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="12"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="F18" s="12">
+        <v>0</v>
+      </c>
+      <c r="G18" s="12"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="12">
-        <v>1</v>
-      </c>
-      <c r="O18" s="12"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="12"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
-      <c r="X18" s="12">
-        <v>2</v>
-      </c>
-      <c r="Y18" s="12"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="12">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="12"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4"/>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="10">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="10">
+        <v>1</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="10">
-        <v>2</v>
-      </c>
-      <c r="O19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="10">
+        <v>2</v>
+      </c>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="10">
-        <v>3</v>
-      </c>
-      <c r="T19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="10">
+        <v>3</v>
+      </c>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
-      <c r="X19" s="10">
-        <v>4</v>
-      </c>
-      <c r="Y19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="10">
+        <v>4</v>
+      </c>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AB19" s="4"/>
-      <c r="AC19" s="10">
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="10">
         <v>5</v>
       </c>
-      <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
+      <c r="AF19" s="4"/>
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D21" s="9">
@@ -1276,7 +1276,9 @@
       </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
-      <c r="I21" s="14"/>
+      <c r="I21" s="12">
+        <v>0</v>
+      </c>
       <c r="J21" s="10">
         <v>1</v>
       </c>

--- a/HW01/Scheduler.xlsx
+++ b/HW01/Scheduler.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\學校\台科\10901\嵌入式作業系統實作 Embedded OS Implementation\-OS-_code\HW01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\10901\嵌入式作業系統實作\HW01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30:D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1141,6 +1141,9 @@
       <c r="B17" t="s">
         <v>4</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17" s="9"/>
       <c r="E17" s="9">
         <v>0</v>
@@ -1183,6 +1186,9 @@
     <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>6</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
       </c>
       <c r="F18" s="12">
         <v>0</v>
@@ -1222,6 +1228,9 @@
     <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>5</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
